--- a/Mifos Automation Excels/Client/2407-MS-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-BLR-LATE-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2407-MS-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-BLR-LATE-CASH-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -116,13 +116,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -159,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -182,17 +187,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,15 +544,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A8" sqref="A8:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -571,25 +585,25 @@
         <v>10000</v>
       </c>
       <c r="B2" s="5">
-        <v>820.83</v>
+        <v>833.33</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="4">
-        <v>9179.17</v>
+        <v>9166.67</v>
       </c>
       <c r="F2" s="5">
-        <v>845.83</v>
+        <v>833.33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>274.72000000000003</v>
+        <v>282.64</v>
       </c>
       <c r="B3" s="5">
-        <v>41.67</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -598,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>237.22</v>
+        <v>257.64</v>
       </c>
       <c r="F3" s="5">
-        <v>11.47</v>
+        <v>31.95</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -642,6 +656,26 @@
       </c>
       <c r="F5" s="5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>10282.64</v>
+      </c>
+      <c r="B6" s="10">
+        <v>858.33</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>9424.31</v>
+      </c>
+      <c r="F6" s="10">
+        <v>865.28</v>
       </c>
     </row>
   </sheetData>
@@ -651,10 +685,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -745,7 +779,7 @@
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
@@ -757,8 +791,10 @@
       <c r="C3" s="7">
         <v>42036</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="7">
+        <v>42050</v>
+      </c>
+      <c r="E3" s="8"/>
       <c r="F3" s="5">
         <v>833.33</v>
       </c>
@@ -772,23 +808,22 @@
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <f>F3-H3</f>
-        <v>808.33</v>
+        <v>0</v>
       </c>
       <c r="K3" s="5">
         <v>858.33</v>
       </c>
       <c r="L3" s="5">
-        <v>845.83</v>
+        <v>858.33</v>
       </c>
       <c r="M3" s="5">
         <v>0</v>
       </c>
       <c r="N3" s="5">
-        <v>845.83</v>
+        <v>858.33</v>
       </c>
       <c r="P3" s="5">
-        <v>16.670000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -796,23 +831,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C4" s="7">
-        <v>42050</v>
-      </c>
-      <c r="D4" s="7">
-        <v>42050</v>
-      </c>
-      <c r="E4" s="8"/>
+        <v>42064</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>833.33</v>
       </c>
       <c r="G4" s="4">
-        <v>9166.67</v>
+        <v>8333.34</v>
       </c>
       <c r="H4" s="5">
-        <v>16.670000000000002</v>
+        <v>31.95</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
@@ -821,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <v>16.670000000000002</v>
+        <v>865.28</v>
       </c>
       <c r="L4" s="5">
-        <v>16.670000000000002</v>
+        <v>0</v>
       </c>
       <c r="M4" s="5">
         <v>0</v>
@@ -833,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="5">
-        <v>0</v>
+        <v>865.28</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -841,10 +874,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C5" s="7">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -852,10 +885,10 @@
         <v>833.33</v>
       </c>
       <c r="G5" s="4">
-        <v>8333.34</v>
+        <v>7500.01</v>
       </c>
       <c r="H5" s="5">
-        <v>16.670000000000002</v>
+        <v>38.19</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
@@ -864,8 +897,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <f>F5-H5</f>
-        <v>816.66000000000008</v>
+        <v>871.52</v>
       </c>
       <c r="L5" s="5">
         <v>0</v>
@@ -877,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="5">
-        <v>844.8</v>
+        <v>871.52</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -885,10 +917,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -896,10 +928,10 @@
         <v>833.33</v>
       </c>
       <c r="G6" s="4">
-        <v>7500.01</v>
+        <v>6666.68</v>
       </c>
       <c r="H6" s="5">
-        <v>38.25</v>
+        <v>37.5</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
@@ -908,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <v>871.58</v>
+        <v>870.83</v>
       </c>
       <c r="L6" s="5">
         <v>0</v>
@@ -920,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="5">
-        <v>871.58</v>
+        <v>870.83</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -928,10 +960,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -939,10 +971,10 @@
         <v>833.33</v>
       </c>
       <c r="G7" s="4">
-        <v>6666.68</v>
+        <v>5833.35</v>
       </c>
       <c r="H7" s="5">
-        <v>37.5</v>
+        <v>33.33</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
@@ -951,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <v>870.83</v>
+        <v>866.66</v>
       </c>
       <c r="L7" s="5">
         <v>0</v>
@@ -963,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="5">
-        <v>870.83</v>
+        <v>866.66</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -971,10 +1003,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -982,10 +1014,10 @@
         <v>833.33</v>
       </c>
       <c r="G8" s="4">
-        <v>5833.35</v>
+        <v>5000.0200000000004</v>
       </c>
       <c r="H8" s="5">
-        <v>33.33</v>
+        <v>29.17</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
@@ -994,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <v>866.66</v>
+        <v>862.5</v>
       </c>
       <c r="L8" s="5">
         <v>0</v>
@@ -1006,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="5">
-        <v>866.66</v>
+        <v>862.5</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1014,10 +1046,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="7">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1025,10 +1057,10 @@
         <v>833.33</v>
       </c>
       <c r="G9" s="4">
-        <v>5000.0200000000004</v>
+        <v>4166.6899999999996</v>
       </c>
       <c r="H9" s="5">
-        <v>29.17</v>
+        <v>25</v>
       </c>
       <c r="I9" s="5">
         <v>0</v>
@@ -1037,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <v>862.5</v>
+        <v>858.33</v>
       </c>
       <c r="L9" s="5">
         <v>0</v>
@@ -1049,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="5">
-        <v>862.5</v>
+        <v>858.33</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1060,7 +1092,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="7">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1068,10 +1100,10 @@
         <v>833.33</v>
       </c>
       <c r="G10" s="4">
-        <v>4166.6899999999996</v>
+        <v>3333.36</v>
       </c>
       <c r="H10" s="5">
-        <v>25</v>
+        <v>20.83</v>
       </c>
       <c r="I10" s="5">
         <v>0</v>
@@ -1080,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <v>858.33</v>
+        <v>854.16</v>
       </c>
       <c r="L10" s="5">
         <v>0</v>
@@ -1092,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="5">
-        <v>858.33</v>
+        <v>854.16</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1100,10 +1132,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1111,10 +1143,10 @@
         <v>833.33</v>
       </c>
       <c r="G11" s="4">
-        <v>3333.36</v>
+        <v>2500.0300000000002</v>
       </c>
       <c r="H11" s="5">
-        <v>20.83</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="I11" s="5">
         <v>0</v>
@@ -1123,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="5">
-        <v>854.16</v>
+        <v>850</v>
       </c>
       <c r="L11" s="5">
         <v>0</v>
@@ -1135,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="5">
-        <v>854.16</v>
+        <v>850</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1143,10 +1175,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="7">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1154,10 +1186,10 @@
         <v>833.33</v>
       </c>
       <c r="G12" s="4">
-        <v>2500.0300000000002</v>
+        <v>1666.7</v>
       </c>
       <c r="H12" s="5">
-        <v>16.670000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="I12" s="5">
         <v>0</v>
@@ -1166,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="5">
-        <v>850</v>
+        <v>845.83</v>
       </c>
       <c r="L12" s="5">
         <v>0</v>
@@ -1178,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="5">
-        <v>850</v>
+        <v>845.83</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1186,21 +1218,21 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
         <v>833.33</v>
       </c>
-      <c r="G13" s="4">
-        <v>1666.7</v>
+      <c r="G13" s="5">
+        <v>833.37</v>
       </c>
       <c r="H13" s="5">
-        <v>12.5</v>
+        <v>8.33</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
@@ -1209,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="5">
-        <v>845.83</v>
+        <v>841.66</v>
       </c>
       <c r="L13" s="5">
         <v>0</v>
@@ -1221,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="5">
-        <v>845.83</v>
+        <v>841.66</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1229,21 +1261,21 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="7">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
-        <v>833.33</v>
+        <v>833.37</v>
       </c>
       <c r="G14" s="5">
-        <v>833.37</v>
+        <v>0</v>
       </c>
       <c r="H14" s="5">
-        <v>8.33</v>
+        <v>4.17</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
@@ -1252,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="5">
-        <v>841.66</v>
+        <v>837.54</v>
       </c>
       <c r="L14" s="5">
         <v>0</v>
@@ -1264,49 +1296,6 @@
         <v>0</v>
       </c>
       <c r="P14" s="5">
-        <v>841.66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5">
-        <v>31</v>
-      </c>
-      <c r="C15" s="7">
-        <v>42370</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5">
-        <v>833.37</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>4.17</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
-        <v>837.54</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0</v>
-      </c>
-      <c r="P15" s="5">
         <v>837.54</v>
       </c>
     </row>
@@ -1317,26 +1306,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
@@ -1368,70 +1358,73 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
-        <v>9</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>72</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="13">
         <v>42050</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="12">
         <v>858.33</v>
       </c>
-      <c r="F2" s="10">
-        <v>820.83</v>
-      </c>
-      <c r="G2" s="10">
-        <v>41.67</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0</v>
-      </c>
-      <c r="J2" s="12">
-        <v>9179.17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>7</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="F2" s="12">
+        <v>833.33</v>
+      </c>
+      <c r="G2" s="12">
+        <v>25</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
+        <v>9166.67</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>70</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="13">
         <v>42005</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="16">
         <v>10000</v>
       </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
         <v>10000</v>
       </c>
     </row>
+    <row r="4" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Mifos Automation Excels/Client/2407-MS-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-BLR-LATE-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2407-MS-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-BLR-LATE-CASH-Makerepayment1.xlsx
@@ -164,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -200,9 +200,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1306,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1326,7 +1323,7 @@
     <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
@@ -1358,7 +1355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>72</v>
       </c>
@@ -1389,10 +1386,8 @@
       <c r="J2" s="14">
         <v>9166.67</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-    </row>
-    <row r="3" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>70</v>
       </c>
@@ -1405,7 +1400,7 @@
       <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>10000</v>
       </c>
       <c r="F3" s="12">
@@ -1420,11 +1415,10 @@
       <c r="I3" s="12">
         <v>0</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Mifos Automation Excels/Client/2407-MS-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-BLR-LATE-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2407-MS-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-BLR-LATE-CASH-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -115,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -215,6 +220,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -262,7 +270,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,9 +303,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,6 +355,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -682,10 +724,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -701,11 +743,12 @@
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -743,15 +786,16 @@
       <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="7">
@@ -776,9 +820,10 @@
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2" s="5"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -816,14 +861,15 @@
       <c r="M3" s="5">
         <v>0</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5">
         <v>858.33</v>
       </c>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -859,14 +905,15 @@
       <c r="M4" s="5">
         <v>0</v>
       </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
         <v>865.28</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -902,14 +949,15 @@
       <c r="M5" s="5">
         <v>0</v>
       </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
         <v>871.52</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -945,14 +993,15 @@
       <c r="M6" s="5">
         <v>0</v>
       </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
         <v>870.83</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -988,14 +1037,15 @@
       <c r="M7" s="5">
         <v>0</v>
       </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
         <v>866.66</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1031,14 +1081,15 @@
       <c r="M8" s="5">
         <v>0</v>
       </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
         <v>862.5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1074,14 +1125,15 @@
       <c r="M9" s="5">
         <v>0</v>
       </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
         <v>858.33</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1117,14 +1169,15 @@
       <c r="M10" s="5">
         <v>0</v>
       </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="P10" s="5">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
         <v>854.16</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1160,14 +1213,15 @@
       <c r="M11" s="5">
         <v>0</v>
       </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
+      <c r="N11" s="5"/>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
         <v>850</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1203,14 +1257,15 @@
       <c r="M12" s="5">
         <v>0</v>
       </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
+      <c r="N12" s="5"/>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
         <v>845.83</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1246,14 +1301,15 @@
       <c r="M13" s="5">
         <v>0</v>
       </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5">
+      <c r="N13" s="5"/>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
         <v>841.66</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1289,10 +1345,11 @@
       <c r="M14" s="5">
         <v>0</v>
       </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5">
+      <c r="N14" s="5"/>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
         <v>837.54</v>
       </c>
     </row>
@@ -1305,7 +1362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/2407-MS-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-BLR-LATE-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2407-MS-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-BLR-LATE-CASH-Makerepayment1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -120,19 +115,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -169,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -191,12 +181,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -270,7 +254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,26 +287,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,23 +322,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -583,10 +533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -697,26 +647,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>10282.64</v>
-      </c>
-      <c r="B6" s="10">
-        <v>858.33</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>9424.31</v>
-      </c>
-      <c r="F6" s="10">
-        <v>865.28</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -726,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
@@ -1412,67 +1342,67 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
+    <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
         <v>72</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="11">
         <v>42050</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <v>858.33</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="10">
         <v>833.33</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="10">
         <v>25</v>
       </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
-      <c r="J2" s="14">
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
         <v>9166.67</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+    <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
         <v>70</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>42005</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <v>10000</v>
       </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="15">
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
         <v>10000</v>
       </c>
     </row>
